--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/5/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/5/FD_Curve.xlsx
@@ -477,10 +477,10 @@
         <v>0.0620038</v>
       </c>
       <c r="B4" t="n">
-        <v>2.24044</v>
+        <v>2.24424</v>
       </c>
       <c r="C4" t="n">
-        <v>2240.44</v>
+        <v>2244.24</v>
       </c>
     </row>
     <row r="5">
@@ -488,1077 +488,1077 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>2.52834</v>
+        <v>3.42934</v>
       </c>
       <c r="C5" t="n">
-        <v>2528.34</v>
+        <v>3429.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.12397</v>
+        <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>2.67296</v>
+        <v>4.06722</v>
       </c>
       <c r="C6" t="n">
-        <v>2672.96</v>
+        <v>4067.22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.154946</v>
+        <v>0.155036</v>
       </c>
       <c r="B7" t="n">
-        <v>2.8072</v>
+        <v>4.42851</v>
       </c>
       <c r="C7" t="n">
-        <v>2807.2</v>
+        <v>4428.51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.185922</v>
+        <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>2.91829</v>
+        <v>4.605939999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>2918.29</v>
+        <v>4605.94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216899</v>
+        <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>3.0087</v>
+        <v>4.70166</v>
       </c>
       <c r="C9" t="n">
-        <v>3008.7</v>
+        <v>4701.66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247875</v>
+        <v>0.247965</v>
       </c>
       <c r="B10" t="n">
-        <v>3.09663</v>
+        <v>4.73521</v>
       </c>
       <c r="C10" t="n">
-        <v>3096.63</v>
+        <v>4735.21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278803</v>
+        <v>0.278892</v>
       </c>
       <c r="B11" t="n">
-        <v>3.17747</v>
+        <v>4.75136</v>
       </c>
       <c r="C11" t="n">
-        <v>3177.47</v>
+        <v>4751.36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309728</v>
+        <v>0.309818</v>
       </c>
       <c r="B12" t="n">
-        <v>3.24711</v>
+        <v>4.762720000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>3247.11</v>
+        <v>4762.72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340653</v>
+        <v>0.340743</v>
       </c>
       <c r="B13" t="n">
-        <v>3.31224</v>
+        <v>4.77292</v>
       </c>
       <c r="C13" t="n">
-        <v>3312.24</v>
+        <v>4772.92</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371578</v>
+        <v>0.371668</v>
       </c>
       <c r="B14" t="n">
-        <v>3.37493</v>
+        <v>4.7817</v>
       </c>
       <c r="C14" t="n">
-        <v>3374.93</v>
+        <v>4781.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402504</v>
+        <v>0.402593</v>
       </c>
       <c r="B15" t="n">
-        <v>3.43241</v>
+        <v>4.78973</v>
       </c>
       <c r="C15" t="n">
-        <v>3432.41</v>
+        <v>4789.73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433429</v>
+        <v>0.433513</v>
       </c>
       <c r="B16" t="n">
-        <v>3.4841</v>
+        <v>4.796390000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>3484.1</v>
+        <v>4796.39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464349</v>
+        <v>0.464438</v>
       </c>
       <c r="B17" t="n">
-        <v>3.53264</v>
+        <v>4.80307</v>
       </c>
       <c r="C17" t="n">
-        <v>3532.64</v>
+        <v>4803.07</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495274</v>
+        <v>0.495363</v>
       </c>
       <c r="B18" t="n">
-        <v>3.57881</v>
+        <v>4.80918</v>
       </c>
       <c r="C18" t="n">
-        <v>3578.81</v>
+        <v>4809.18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526199</v>
+        <v>0.526288</v>
       </c>
       <c r="B19" t="n">
-        <v>3.61966</v>
+        <v>4.81496</v>
       </c>
       <c r="C19" t="n">
-        <v>3619.66</v>
+        <v>4814.96</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557124</v>
+        <v>0.557213</v>
       </c>
       <c r="B20" t="n">
-        <v>3.65953</v>
+        <v>4.82025</v>
       </c>
       <c r="C20" t="n">
-        <v>3659.53</v>
+        <v>4820.25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588049</v>
+        <v>0.588138</v>
       </c>
       <c r="B21" t="n">
-        <v>3.69521</v>
+        <v>4.825340000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>3695.21</v>
+        <v>4825.34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6190909999999999</v>
+        <v>0.61918</v>
       </c>
       <c r="B22" t="n">
-        <v>3.72928</v>
+        <v>4.83012</v>
       </c>
       <c r="C22" t="n">
-        <v>3729.28</v>
+        <v>4830.12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650268</v>
+        <v>0.650357</v>
       </c>
       <c r="B23" t="n">
-        <v>3.76057</v>
+        <v>4.83464</v>
       </c>
       <c r="C23" t="n">
-        <v>3760.57</v>
+        <v>4834.64</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681441</v>
+        <v>0.68153</v>
       </c>
       <c r="B24" t="n">
-        <v>3.78878</v>
+        <v>4.83892</v>
       </c>
       <c r="C24" t="n">
-        <v>3788.78</v>
+        <v>4838.92</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.7126130000000001</v>
+        <v>0.712703</v>
       </c>
       <c r="B25" t="n">
-        <v>3.81551</v>
+        <v>4.842989999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>3815.51</v>
+        <v>4842.99</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.74379</v>
+        <v>0.74388</v>
       </c>
       <c r="B26" t="n">
-        <v>3.83963</v>
+        <v>4.846850000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>3839.63</v>
+        <v>4846.85</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.774963</v>
+        <v>0.775052</v>
       </c>
       <c r="B27" t="n">
-        <v>3.86112</v>
+        <v>4.85052</v>
       </c>
       <c r="C27" t="n">
-        <v>3861.12</v>
+        <v>4850.52</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806136</v>
+        <v>0.806225</v>
       </c>
       <c r="B28" t="n">
-        <v>3.88141</v>
+        <v>4.854</v>
       </c>
       <c r="C28" t="n">
-        <v>3881.41</v>
+        <v>4854</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837313</v>
+        <v>0.837402</v>
       </c>
       <c r="B29" t="n">
-        <v>3.89937</v>
+        <v>4.857310000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>3899.37</v>
+        <v>4857.31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868485</v>
+        <v>0.868574</v>
       </c>
       <c r="B30" t="n">
-        <v>3.91491</v>
+        <v>4.86046</v>
       </c>
       <c r="C30" t="n">
-        <v>3914.91</v>
+        <v>4860.46</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899658</v>
+        <v>0.899747</v>
       </c>
       <c r="B31" t="n">
-        <v>3.92859</v>
+        <v>4.86343</v>
       </c>
       <c r="C31" t="n">
-        <v>3928.59</v>
+        <v>4863.43</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930835</v>
+        <v>0.930924</v>
       </c>
       <c r="B32" t="n">
-        <v>3.9406</v>
+        <v>4.86629</v>
       </c>
       <c r="C32" t="n">
-        <v>3940.6</v>
+        <v>4866.29</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9620069999999999</v>
+        <v>0.962096</v>
       </c>
       <c r="B33" t="n">
-        <v>3.95068</v>
+        <v>4.86898</v>
       </c>
       <c r="C33" t="n">
-        <v>3950.68</v>
+        <v>4868.98</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993184</v>
+        <v>0.993273</v>
       </c>
       <c r="B34" t="n">
-        <v>3.95931</v>
+        <v>4.87154</v>
       </c>
       <c r="C34" t="n">
-        <v>3959.31</v>
+        <v>4871.54</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02422</v>
+        <v>1.02432</v>
       </c>
       <c r="B35" t="n">
-        <v>3.96608</v>
+        <v>4.87397</v>
       </c>
       <c r="C35" t="n">
-        <v>3966.08</v>
+        <v>4873.97</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05518</v>
+        <v>1.05529</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97136</v>
+        <v>4.876270000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>3971.36</v>
+        <v>4876.27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08615</v>
+        <v>1.08626</v>
       </c>
       <c r="B37" t="n">
-        <v>3.97486</v>
+        <v>4.878439999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>3974.86</v>
+        <v>4878.44</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11712</v>
+        <v>1.11722</v>
       </c>
       <c r="B38" t="n">
-        <v>3.97707</v>
+        <v>4.88049</v>
       </c>
       <c r="C38" t="n">
-        <v>3977.07</v>
+        <v>4880.49</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14809</v>
+        <v>1.14819</v>
       </c>
       <c r="B39" t="n">
-        <v>3.97779</v>
+        <v>4.8824</v>
       </c>
       <c r="C39" t="n">
-        <v>3977.79</v>
+        <v>4882.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17906</v>
+        <v>1.17911</v>
       </c>
       <c r="B40" t="n">
-        <v>3.97725</v>
+        <v>4.884189999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>3977.25</v>
+        <v>4884.19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21002</v>
+        <v>1.21013</v>
       </c>
       <c r="B41" t="n">
-        <v>3.97564</v>
+        <v>4.88592</v>
       </c>
       <c r="C41" t="n">
-        <v>3975.64</v>
+        <v>4885.92</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24099</v>
+        <v>1.24072</v>
       </c>
       <c r="B42" t="n">
-        <v>3.97307</v>
+        <v>4.8875</v>
       </c>
       <c r="C42" t="n">
-        <v>3973.07</v>
+        <v>4887.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27196</v>
+        <v>1.27127</v>
       </c>
       <c r="B43" t="n">
-        <v>3.96957</v>
+        <v>4.88898</v>
       </c>
       <c r="C43" t="n">
-        <v>3969.57</v>
+        <v>4888.98</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30293</v>
+        <v>1.30183</v>
       </c>
       <c r="B44" t="n">
-        <v>3.96516</v>
+        <v>4.890350000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>3965.16</v>
+        <v>4890.35</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.3339</v>
+        <v>1.33329</v>
       </c>
       <c r="B45" t="n">
-        <v>3.96008</v>
+        <v>4.89166</v>
       </c>
       <c r="C45" t="n">
-        <v>3960.08</v>
+        <v>4891.66</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36486</v>
+        <v>1.36487</v>
       </c>
       <c r="B46" t="n">
-        <v>3.95438</v>
+        <v>4.89288</v>
       </c>
       <c r="C46" t="n">
-        <v>3954.38</v>
+        <v>4892.88</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39583</v>
+        <v>1.39624</v>
       </c>
       <c r="B47" t="n">
-        <v>3.94811</v>
+        <v>4.89402</v>
       </c>
       <c r="C47" t="n">
-        <v>3948.11</v>
+        <v>4894.02</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.4268</v>
+        <v>1.42738</v>
       </c>
       <c r="B48" t="n">
-        <v>3.94127</v>
+        <v>4.89507</v>
       </c>
       <c r="C48" t="n">
-        <v>3941.27</v>
+        <v>4895.07</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45777</v>
+        <v>1.45853</v>
       </c>
       <c r="B49" t="n">
-        <v>3.93393</v>
+        <v>4.896</v>
       </c>
       <c r="C49" t="n">
-        <v>3933.93</v>
+        <v>4896</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48873</v>
+        <v>1.48968</v>
       </c>
       <c r="B50" t="n">
-        <v>3.9261</v>
+        <v>4.89684</v>
       </c>
       <c r="C50" t="n">
-        <v>3926.1</v>
+        <v>4896.84</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.5197</v>
+        <v>1.52083</v>
       </c>
       <c r="B51" t="n">
-        <v>3.91779</v>
+        <v>4.89758</v>
       </c>
       <c r="C51" t="n">
-        <v>3917.79</v>
+        <v>4897.58</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55067</v>
+        <v>1.55197</v>
       </c>
       <c r="B52" t="n">
-        <v>3.90896</v>
+        <v>4.89821</v>
       </c>
       <c r="C52" t="n">
-        <v>3908.96</v>
+        <v>4898.21</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58163</v>
+        <v>1.58312</v>
       </c>
       <c r="B53" t="n">
-        <v>3.89965</v>
+        <v>4.898779999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>3899.65</v>
+        <v>4898.78</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.6126</v>
+        <v>1.61392</v>
       </c>
       <c r="B54" t="n">
-        <v>3.88973</v>
+        <v>4.899229999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>3889.73</v>
+        <v>4899.23</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64357</v>
+        <v>1.64464</v>
       </c>
       <c r="B55" t="n">
-        <v>3.87919</v>
+        <v>4.89963</v>
       </c>
       <c r="C55" t="n">
-        <v>3879.19</v>
+        <v>4899.63</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67454</v>
+        <v>1.67536</v>
       </c>
       <c r="B56" t="n">
-        <v>3.86811</v>
+        <v>4.89991</v>
       </c>
       <c r="C56" t="n">
-        <v>3868.11</v>
+        <v>4899.91</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70551</v>
+        <v>1.70608</v>
       </c>
       <c r="B57" t="n">
-        <v>3.85654</v>
+        <v>4.90012</v>
       </c>
       <c r="C57" t="n">
-        <v>3856.54</v>
+        <v>4900.12</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73647</v>
+        <v>1.7368</v>
       </c>
       <c r="B58" t="n">
-        <v>3.84448</v>
+        <v>4.90021</v>
       </c>
       <c r="C58" t="n">
-        <v>3844.48</v>
+        <v>4900.21</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76744</v>
+        <v>1.76752</v>
       </c>
       <c r="B59" t="n">
-        <v>3.83194</v>
+        <v>4.90023</v>
       </c>
       <c r="C59" t="n">
-        <v>3831.94</v>
+        <v>4900.23</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79841</v>
+        <v>1.79819</v>
       </c>
       <c r="B60" t="n">
-        <v>3.81887</v>
+        <v>4.90017</v>
       </c>
       <c r="C60" t="n">
-        <v>3818.87</v>
+        <v>4900.17</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.82938</v>
+        <v>1.82927</v>
       </c>
       <c r="B61" t="n">
-        <v>3.80527</v>
+        <v>4.90001</v>
       </c>
       <c r="C61" t="n">
-        <v>3805.27</v>
+        <v>4900.01</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86035</v>
+        <v>1.86061</v>
       </c>
       <c r="B62" t="n">
-        <v>3.79102</v>
+        <v>4.89977</v>
       </c>
       <c r="C62" t="n">
-        <v>3791.02</v>
+        <v>4899.77</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89131</v>
+        <v>1.89195</v>
       </c>
       <c r="B63" t="n">
-        <v>3.77605</v>
+        <v>4.89947</v>
       </c>
       <c r="C63" t="n">
-        <v>3776.05</v>
+        <v>4899.47</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92228</v>
+        <v>1.92328</v>
       </c>
       <c r="B64" t="n">
-        <v>3.76039</v>
+        <v>4.89908</v>
       </c>
       <c r="C64" t="n">
-        <v>3760.39</v>
+        <v>4899.08</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95325</v>
+        <v>1.95462</v>
       </c>
       <c r="B65" t="n">
-        <v>3.74406</v>
+        <v>4.89862</v>
       </c>
       <c r="C65" t="n">
-        <v>3744.06</v>
+        <v>4898.62</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98422</v>
+        <v>1.98596</v>
       </c>
       <c r="B66" t="n">
-        <v>3.72708</v>
+        <v>4.89807</v>
       </c>
       <c r="C66" t="n">
-        <v>3727.08</v>
+        <v>4898.07</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01519</v>
+        <v>2.01699</v>
       </c>
       <c r="B67" t="n">
-        <v>3.70943</v>
+        <v>4.89748</v>
       </c>
       <c r="C67" t="n">
-        <v>3709.43</v>
+        <v>4897.48</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04596</v>
+        <v>2.04789</v>
       </c>
       <c r="B68" t="n">
-        <v>3.6911</v>
+        <v>4.89681</v>
       </c>
       <c r="C68" t="n">
-        <v>3691.1</v>
+        <v>4896.81</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07716</v>
+        <v>2.07879</v>
       </c>
       <c r="B69" t="n">
-        <v>3.67183</v>
+        <v>4.89604</v>
       </c>
       <c r="C69" t="n">
-        <v>3671.83</v>
+        <v>4896.04</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10797</v>
+        <v>2.10968</v>
       </c>
       <c r="B70" t="n">
-        <v>3.65208</v>
+        <v>4.89523</v>
       </c>
       <c r="C70" t="n">
-        <v>3652.08</v>
+        <v>4895.23</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.13912</v>
+        <v>2.14058</v>
       </c>
       <c r="B71" t="n">
-        <v>3.63123</v>
+        <v>4.89433</v>
       </c>
       <c r="C71" t="n">
-        <v>3631.23</v>
+        <v>4894.33</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17005</v>
+        <v>2.17148</v>
       </c>
       <c r="B72" t="n">
-        <v>3.60989</v>
+        <v>4.89337</v>
       </c>
       <c r="C72" t="n">
-        <v>3609.89</v>
+        <v>4893.37</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20113</v>
+        <v>2.20237</v>
       </c>
       <c r="B73" t="n">
-        <v>3.58741</v>
+        <v>4.89234</v>
       </c>
       <c r="C73" t="n">
-        <v>3587.41</v>
+        <v>4892.34</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23197</v>
+        <v>2.23327</v>
       </c>
       <c r="B74" t="n">
-        <v>3.56435</v>
+        <v>4.89124</v>
       </c>
       <c r="C74" t="n">
-        <v>3564.35</v>
+        <v>4891.24</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26326</v>
+        <v>2.26417</v>
       </c>
       <c r="B75" t="n">
-        <v>3.54017</v>
+        <v>4.89006</v>
       </c>
       <c r="C75" t="n">
-        <v>3540.17</v>
+        <v>4890.06</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29402</v>
+        <v>2.29527</v>
       </c>
       <c r="B76" t="n">
-        <v>3.51529</v>
+        <v>4.88879</v>
       </c>
       <c r="C76" t="n">
-        <v>3515.29</v>
+        <v>4888.79</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32508</v>
+        <v>2.32636</v>
       </c>
       <c r="B77" t="n">
-        <v>3.48932</v>
+        <v>4.88741</v>
       </c>
       <c r="C77" t="n">
-        <v>3489.32</v>
+        <v>4887.41</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35626</v>
+        <v>2.35744</v>
       </c>
       <c r="B78" t="n">
-        <v>3.46249</v>
+        <v>4.88596</v>
       </c>
       <c r="C78" t="n">
-        <v>3462.49</v>
+        <v>4885.96</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38698</v>
+        <v>2.38853</v>
       </c>
       <c r="B79" t="n">
-        <v>3.43478</v>
+        <v>4.884390000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>3434.78</v>
+        <v>4884.39</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41813</v>
+        <v>2.41961</v>
       </c>
       <c r="B80" t="n">
-        <v>3.40585</v>
+        <v>4.88271</v>
       </c>
       <c r="C80" t="n">
-        <v>3405.85</v>
+        <v>4882.71</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.44906</v>
+        <v>2.4507</v>
       </c>
       <c r="B81" t="n">
-        <v>3.37645</v>
+        <v>4.88096</v>
       </c>
       <c r="C81" t="n">
-        <v>3376.45</v>
+        <v>4880.96</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.47892</v>
+        <v>2.48179</v>
       </c>
       <c r="B82" t="n">
-        <v>3.34675</v>
+        <v>4.87913</v>
       </c>
       <c r="C82" t="n">
-        <v>3346.75</v>
+        <v>4879.13</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51092</v>
+        <v>2.51287</v>
       </c>
       <c r="B83" t="n">
-        <v>3.31432</v>
+        <v>4.87721</v>
       </c>
       <c r="C83" t="n">
-        <v>3314.32</v>
+        <v>4877.21</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54233</v>
+        <v>2.54396</v>
       </c>
       <c r="B84" t="n">
-        <v>3.28161</v>
+        <v>4.87521</v>
       </c>
       <c r="C84" t="n">
-        <v>3281.61</v>
+        <v>4875.21</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57275</v>
+        <v>2.57504</v>
       </c>
       <c r="B85" t="n">
-        <v>3.24888</v>
+        <v>4.87311</v>
       </c>
       <c r="C85" t="n">
-        <v>3248.88</v>
+        <v>4873.11</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60295</v>
+        <v>2.60613</v>
       </c>
       <c r="B86" t="n">
-        <v>3.21595</v>
+        <v>4.87094</v>
       </c>
       <c r="C86" t="n">
-        <v>3215.95</v>
+        <v>4870.94</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63495</v>
+        <v>2.63721</v>
       </c>
       <c r="B87" t="n">
-        <v>3.18008</v>
+        <v>4.86869</v>
       </c>
       <c r="C87" t="n">
-        <v>3180.08</v>
+        <v>4868.69</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.6663</v>
+        <v>2.66752</v>
       </c>
       <c r="B88" t="n">
-        <v>3.14436</v>
+        <v>4.86638</v>
       </c>
       <c r="C88" t="n">
-        <v>3144.36</v>
+        <v>4866.38</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69702</v>
+        <v>2.69769</v>
       </c>
       <c r="B89" t="n">
-        <v>3.10895</v>
+        <v>4.86398</v>
       </c>
       <c r="C89" t="n">
-        <v>3108.95</v>
+        <v>4863.98</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.72681</v>
+        <v>2.72786</v>
       </c>
       <c r="B90" t="n">
-        <v>3.07383</v>
+        <v>4.86145</v>
       </c>
       <c r="C90" t="n">
-        <v>3073.83</v>
+        <v>4861.45</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.75887</v>
+        <v>2.75803</v>
       </c>
       <c r="B91" t="n">
-        <v>3.03612</v>
+        <v>4.85881</v>
       </c>
       <c r="C91" t="n">
-        <v>3036.12</v>
+        <v>4858.81</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79016</v>
+        <v>2.7882</v>
       </c>
       <c r="B92" t="n">
-        <v>2.99832</v>
+        <v>4.856100000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>2998.32</v>
+        <v>4856.1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82097</v>
+        <v>2.81838</v>
       </c>
       <c r="B93" t="n">
-        <v>2.96112</v>
+        <v>4.85331</v>
       </c>
       <c r="C93" t="n">
-        <v>2961.12</v>
+        <v>4853.31</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85084</v>
+        <v>2.84854</v>
       </c>
       <c r="B94" t="n">
-        <v>2.92474</v>
+        <v>4.85046</v>
       </c>
       <c r="C94" t="n">
-        <v>2924.74</v>
+        <v>4850.46</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88205</v>
+        <v>2.87872</v>
       </c>
       <c r="B95" t="n">
-        <v>2.88654</v>
+        <v>4.847510000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>2886.54</v>
+        <v>4847.51</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91405</v>
+        <v>2.9094</v>
       </c>
       <c r="B96" t="n">
-        <v>2.84696</v>
+        <v>4.844390000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>2846.96</v>
+        <v>4844.39</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94563</v>
+        <v>2.94189</v>
       </c>
       <c r="B97" t="n">
-        <v>2.8082</v>
+        <v>4.84096</v>
       </c>
       <c r="C97" t="n">
-        <v>2808.2</v>
+        <v>4840.96</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97603</v>
+        <v>2.97404</v>
       </c>
       <c r="B98" t="n">
-        <v>2.77029</v>
+        <v>4.83737</v>
       </c>
       <c r="C98" t="n">
-        <v>2770.29</v>
+        <v>4837.37</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00643</v>
+        <v>3.00554</v>
       </c>
       <c r="B99" t="n">
-        <v>2.73321</v>
+        <v>4.833640000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>2733.21</v>
+        <v>4833.64</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.03557</v>
+        <v>3.03705</v>
       </c>
       <c r="B100" t="n">
-        <v>2.69703</v>
+        <v>4.8297</v>
       </c>
       <c r="C100" t="n">
-        <v>2697.03</v>
+        <v>4829.7</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.06806</v>
+        <v>3.06856</v>
       </c>
       <c r="B101" t="n">
-        <v>2.65709</v>
+        <v>4.82557</v>
       </c>
       <c r="C101" t="n">
-        <v>2657.09</v>
+        <v>4825.57</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10057</v>
+        <v>3.10007</v>
       </c>
       <c r="B102" t="n">
-        <v>2.61773</v>
+        <v>4.82127</v>
       </c>
       <c r="C102" t="n">
-        <v>2617.73</v>
+        <v>4821.27</v>
       </c>
     </row>
   </sheetData>
